--- a/sources/test.xlsx
+++ b/sources/test.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Case 1</t>
+    <t>Data 1</t>
   </si>
   <si>
-    <t>Case 2</t>
+    <t>Data 2</t>
   </si>
   <si>
-    <t>Case 3</t>
+    <t>Data 3</t>
   </si>
 </sst>
 </file>
